--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_146.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_146.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,374 +488,407 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_46</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2701149425287356</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G']]</t>
-        </is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_167</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1702898550724637</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
+          <t>[['C#:7', 'F#:maj', 'C#:maj', 'F#:maj'], ['F#:maj/A#', 'C#:7', 'F#:maj', 'C#:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(29.22, 62.42)]</t>
+          <t>[['G:7', 'C:maj', 'G:maj', 'C:maj'], ['C:maj', 'G:7', 'C:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(10.56, 27.36)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>[('0:00:49.480000', '0:00:52.820000'), ('0:00:48.180000', '0:00:52.180000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:08.960000', '0:00:11.420000'), ('0:00:08.340000', '0:00:10.800000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_155</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2708333333333333</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>isophonics_168</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_76</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.09523809523809523</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>[['A:min7', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(1.46, 11.26)]</t>
+          <t>[['A:min7', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(62.02, 71.86)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:35.276145', '0:00:39.339638')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:18.135000', '0:00:24.528000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_13</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.05137880986937591</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_51</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_115</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.09980620155038759</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Eb']]</t>
+          <t>[['C:min', 'C:min/G', 'G:7', 'C:min', 'C:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(7.46, 13.64)]</t>
+          <t>[['D:min', 'D:min', 'A:7', 'D:min', 'D:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(7.87, 14.66)]</t>
+          <t>[('0:00:21.860000', '0:00:28.920000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:14.480000', '0:00:43.320000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_3</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'G'], ['G', 'D', 'G'], ['A:min', 'G', 'D/3']]</t>
-        </is>
+          <t>jaah_14</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2597402597402597</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj/E', 'F:maj'], ['F:maj', 'C:maj', 'F:maj'], ['G:min/A#', 'F:maj/C', 'C:maj']]</t>
+          <t>[['Ab', 'Eb:7', 'Ab']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(62.748299, 67.543219), (1.014823, 6.126439), (17.573877, 21.2078)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(208.74, 211.74), (1.64, 23.48), (91.82, 97.48)]</t>
+          <t>[('0:01:06.930000', '0:01:12.560000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
+          <t>[('0:00:58.320000', '0:00:59.680000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_3</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_235</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1369047619047619</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G', 'D', 'G'], ['C', 'D', 'G']]</t>
-        </is>
+          <t>jaah_0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2660098522167488</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['Bb', 'F', 'Bb'], ['Eb', 'F', 'Bb']]</t>
+          <t>[['Ab', 'Eb:7', 'Ab']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(1.014823, 6.126439), (6.126439, 9.980952)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(26.041712, 37.10602), (59.292687, 74.118628)]</t>
+          <t>[('0:00:25.220000', '0:00:27.170000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
+          <t>[('0:01:06.920000', '0:01:08.180000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_192</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.08233082706766917</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F', 'G', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_180</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_54</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['Ab', 'Bb', 'Eb']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(75.355124, 80.742154)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(7.043, 10.286)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:04.840000', '0:01:33.920000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:09.240000', '0:01:48.600000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_20</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.07054794520547945</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['Eb:7', 'Ab', 'Ab']]</t>
-        </is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4642857142857143</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Eb']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(34.65, 37.76)]</t>
+          <t>[['C#', 'F#/5', 'C#']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(8.86, 14.12)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:40.490000', '0:00:47.860000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:31.469410', '0:01:58.925813')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_288</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_48</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.173202614379085</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['E', 'B', 'E', 'C#:min']]</t>
-        </is>
+          <t>isophonics_107</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.45</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A', 'F#:min']]</t>
+          <t>[['B:7', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(46.92229, 51.090272)]</t>
+          <t>[['A:7/G', 'D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(91.834264, 99.821928)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:13.384180', '0:00:21.737596')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:58.940000', '0:01:07.080000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_14</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_55</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1538825757575757</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A', 'A/7', 'A/b7', 'A/6', 'A/b6']]</t>
-        </is>
+          <t>isophonics_234</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C', 'C', 'C', 'C', 'C']]</t>
+          <t>[['Eb/5', 'Ab/2', 'Eb']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(84.787426, 87.887535)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(48.53, 52.39)]</t>
+          <t>[('0:01:15.439000', '0:01:23.381000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
+          <t>[('0:01:01.320000', '0:01:03.700000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_68</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.5079365079365079</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_91</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -859,250 +897,259 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(7.64, 17.66)]</t>
+          <t>[['G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(63.38, 65.72)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:01:02.420000', '0:01:04.620000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:01:18.460000', '0:01:27.700000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3794871794871795</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(35.22, 40.0)]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(32.98, 35.26)]</t>
+          <t>[('0:01:14.700000', '0:01:34.120000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:31.260000', '0:00:45.880000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1239935587761675</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb', 'Eb', 'Bb:7']]</t>
-        </is>
+          <t>schubert-winterreise_190</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_201</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7']]</t>
+          <t>[['D#:(3,b5,b7)/G', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(31.89, 35.47)]</t>
+          <t>[['D:(3,b5,b7)/F#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(18.3, 21.32)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:41', '0:00:45.320000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:37.820000', '0:00:42.820000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_81</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1678571428571429</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['Ab', 'Bb', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['E', 'F#', 'B']]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(7.043, 10.286)]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(26.48873, 32.328548)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:00:00.500000', '0:00:23.020000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:00.220000', '0:00:21.940000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_200</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2795031055900621</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(2.408196, 13.878853)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(61.48, 63.58)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+          <t>[('0:00:07.540000', '0:02:02.260000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:06.300000', '0:01:53.780000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_216</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_128</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1697792869269949</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_185</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_177</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'F', 'C']]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(25.850181, 33.826235)]</t>
+          <t>[['A:min', 'A:7', 'D:maj/A', 'D:min/A', 'A:maj', 'A:min', 'E:maj', 'A:min', 'A:7', 'D:min/A', 'E:7/A', 'A:min', 'D:min/A', 'A:min', 'C:maj/G', 'D:min/F', 'C:maj/E', 'G:7', 'C:maj', 'A:min', 'A:7/G', 'D:maj/F#', 'G:(3,5,b7,b9)/F', 'C:maj/E', 'E:(3,5,b7,b9)/D', 'F:(3,5)', 'A:min/E', 'E:7', 'F:(3,5)', 'A:min/E', 'E:7', 'A:min', 'A:7', 'D:maj', 'D:min', 'A:maj', 'A:min/A', 'E:maj', 'A:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(9.717289, 15.986961)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>jaah_74</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>jaah_47</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.06354166666666666</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['Eb:7', 'Ab', 'Ab'], ['C:min7', 'F:7', 'Bb:7']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['Db:7', 'Gb', 'Gb'], ['Db:maj6', 'Eb:7', 'Ab:7']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(92.53, 93.66), (4.0, 6.46)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(20.14, 23.58), (45.55, 49.0)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:00.820000', '0:01:47.920000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:00.620000', '0:01:47.380000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
